--- a/public/assets/frontend/example/standard.xlsx
+++ b/public/assets/frontend/example/standard.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">system_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Economic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP Camera 2</t>
   </si>
 </sst>
 </file>
@@ -101,8 +107,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,22 +137,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
